--- a/RX8CanBus20-05-2020_Will_additions.xlsx
+++ b/RX8CanBus20-05-2020_Will_additions.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://livemdxac-my.sharepoint.com/personal/w_davis_mdx_ac_uk/Documents/Inventions/IsaacRX8/MazdaRX8Arduino-master/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Will\OneDrive - Middlesex University\Inventions\IsaacRX8\MazdaRX8TelemetryScreen\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="111">
   <si>
     <t>CAN ID</t>
   </si>
@@ -359,13 +359,16 @@
   </si>
   <si>
     <t>*Will's additions from the chinese arduino script</t>
+  </si>
+  <si>
+    <t>Coolant Temp</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -400,6 +403,12 @@
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="5">
@@ -443,7 +452,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -468,6 +477,8 @@
     <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="1" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Excel Built-in Normal" xfId="3"/>
@@ -788,7 +799,7 @@
   <dimension ref="A1:S49"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A18" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A34" sqref="A34"/>
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1533,8 +1544,8 @@
         <v>55</v>
       </c>
       <c r="B34" s="2"/>
-      <c r="C34" s="2" t="s">
-        <v>60</v>
+      <c r="C34" s="19" t="s">
+        <v>110</v>
       </c>
       <c r="D34" s="9">
         <v>8</v>
@@ -1548,7 +1559,7 @@
       <c r="G34" s="9">
         <v>191</v>
       </c>
-      <c r="H34" s="9">
+      <c r="H34" s="18">
         <v>127</v>
       </c>
       <c r="I34" s="9">
@@ -1963,6 +1974,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010042EF5B5FED3C1B46A089224F4BBBC839" ma:contentTypeVersion="14" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="5c677d527518b1c4a0cc40f6d2906d1f">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="cc544dc1-3c9d-46e1-9f0b-6c4877d0412d" xmlns:ns4="a8ad2cf7-3990-4386-aca2-65ff249e7667" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="8eb838a1d1421da135dd40b578a319ee" ns3:_="" ns4:_="">
     <xsd:import namespace="cc544dc1-3c9d-46e1-9f0b-6c4877d0412d"/>
@@ -2191,22 +2217,32 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{659B407F-4646-43EC-83C5-F0F687CFCA8D}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="cc544dc1-3c9d-46e1-9f0b-6c4877d0412d"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="a8ad2cf7-3990-4386-aca2-65ff249e7667"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A11F17F8-1594-43D1-B0AB-001D9004130F}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{07094125-D120-4FF9-B0F0-2920827FE411}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2223,29 +2259,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A11F17F8-1594-43D1-B0AB-001D9004130F}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{659B407F-4646-43EC-83C5-F0F687CFCA8D}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="a8ad2cf7-3990-4386-aca2-65ff249e7667"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="cc544dc1-3c9d-46e1-9f0b-6c4877d0412d"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/RX8CanBus20-05-2020_Will_additions.xlsx
+++ b/RX8CanBus20-05-2020_Will_additions.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="128">
   <si>
     <t>ABS / DSC</t>
   </si>
@@ -281,9 +281,6 @@
     <t>231</t>
   </si>
   <si>
-    <t>15 or 255</t>
-  </si>
-  <si>
     <t>240</t>
   </si>
   <si>
@@ -393,13 +390,31 @@
   </si>
   <si>
     <t>*Will's additions from the chinese arduino script</t>
+  </si>
+  <si>
+    <t>and again throttle pedal</t>
+  </si>
+  <si>
+    <t>15 out of gear, 255 in gear</t>
+  </si>
+  <si>
+    <t>minus 1 of number: brake, 3: idle, 35: third injector, 19 initial torque (fuel dump)</t>
+  </si>
+  <si>
+    <t>96 handlebrake, 0 off</t>
+  </si>
+  <si>
+    <t>maybe fuel tank percentage</t>
+  </si>
+  <si>
+    <t>fuel level(/2.55) These three possibly mean three fuel sensors, with a math function for byte 7</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -438,6 +453,11 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="7">
@@ -492,40 +512,98 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="1" fontId="6" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="1" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
     <xf numFmtId="1" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="1" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="1" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="1" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="1" fontId="3" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="1" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="3" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="1" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="49" fontId="3" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="4" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="1" fontId="3" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="1" fontId="4" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="1" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="3" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
+      <alignment horizontal="right" vertical="top"/>
     </xf>
     <xf numFmtId="1" fontId="5" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink 2" xfId="1"/>
@@ -878,1236 +956,1247 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AMJ52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B39" sqref="B39"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="C40" sqref="C40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.42578125" style="2" customWidth="1"/>
-    <col min="2" max="2" width="46.85546875" style="2" customWidth="1"/>
-    <col min="3" max="3" width="57.140625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="9.140625" style="2"/>
-    <col min="5" max="5" width="22.140625" style="2" customWidth="1"/>
-    <col min="6" max="6" width="27.28515625" style="2" customWidth="1"/>
-    <col min="7" max="7" width="9.140625" style="2"/>
-    <col min="8" max="8" width="12.85546875" style="2" customWidth="1"/>
-    <col min="9" max="9" width="33.5703125" style="2" customWidth="1"/>
-    <col min="10" max="10" width="25.85546875" style="2" customWidth="1"/>
-    <col min="11" max="11" width="30.42578125" style="2" customWidth="1"/>
-    <col min="12" max="12" width="16.85546875" style="2" customWidth="1"/>
-    <col min="13" max="13" width="18.42578125" style="2" customWidth="1"/>
-    <col min="14" max="1024" width="9.140625" style="2"/>
+    <col min="1" max="1" width="10.42578125" style="9" customWidth="1"/>
+    <col min="2" max="2" width="46.85546875" style="9" customWidth="1"/>
+    <col min="3" max="3" width="57.140625" style="9" customWidth="1"/>
+    <col min="4" max="4" width="9.140625" style="9"/>
+    <col min="5" max="5" width="22.140625" style="9" customWidth="1"/>
+    <col min="6" max="6" width="27.28515625" style="9" customWidth="1"/>
+    <col min="7" max="7" width="9.140625" style="9"/>
+    <col min="8" max="8" width="12.85546875" style="9" customWidth="1"/>
+    <col min="9" max="9" width="33.5703125" style="9" customWidth="1"/>
+    <col min="10" max="10" width="25.85546875" style="9" customWidth="1"/>
+    <col min="11" max="11" width="30.42578125" style="9" customWidth="1"/>
+    <col min="12" max="12" width="16.85546875" style="9" customWidth="1"/>
+    <col min="13" max="13" width="18.42578125" style="9" customWidth="1"/>
+    <col min="14" max="1024" width="9.140625" style="9"/>
+    <col min="1025" max="16384" width="9.140625" style="19"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A1" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="3" t="s">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="2" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="2" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="2" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="2" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A7" s="3" t="s">
+      <c r="A7" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="2" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A8" s="3" t="s">
+      <c r="A8" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="2" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A9" s="3" t="s">
+      <c r="A9" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B9" s="2" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A10" s="3" t="s">
+      <c r="A10" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B10" s="2" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A11" s="3" t="s">
+      <c r="A11" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="B11" s="2" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A12" s="3"/>
-      <c r="B12" s="3"/>
+      <c r="A12" s="2"/>
+      <c r="B12" s="2"/>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A13" s="3" t="s">
+      <c r="A13" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="D13" s="3" t="s">
+      <c r="D13" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="E13" s="3" t="s">
+      <c r="E13" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="F13" s="3" t="s">
+      <c r="F13" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="G13" s="3" t="s">
+      <c r="G13" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="H13" s="3" t="s">
+      <c r="H13" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="I13" s="3" t="s">
+      <c r="I13" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="J13" s="3" t="s">
+      <c r="J13" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="K13" s="3" t="s">
+      <c r="K13" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="L13" s="3" t="s">
+      <c r="L13" s="2" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A14" s="3" t="s">
+      <c r="A14" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="B14" s="3" t="s">
+      <c r="B14" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C14" s="3" t="s">
+      <c r="C14" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="D14" s="4" t="s">
+      <c r="D14" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="E14" s="4">
-        <v>0</v>
-      </c>
-      <c r="F14" s="4">
+      <c r="E14" s="3">
+        <v>0</v>
+      </c>
+      <c r="F14" s="3">
         <v>1</v>
       </c>
-      <c r="G14" s="4">
+      <c r="G14" s="3">
         <v>2</v>
       </c>
-      <c r="H14" s="4">
+      <c r="H14" s="3">
         <v>3</v>
       </c>
-      <c r="I14" s="4">
+      <c r="I14" s="3">
         <v>4</v>
       </c>
-      <c r="J14" s="4">
+      <c r="J14" s="3">
         <v>5</v>
       </c>
-      <c r="K14" s="4">
+      <c r="K14" s="3">
         <v>6</v>
       </c>
-      <c r="L14" s="4">
+      <c r="L14" s="3">
         <v>7</v>
       </c>
-      <c r="M14" s="3" t="s">
+      <c r="M14" s="2" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A15" s="3" t="s">
+      <c r="A15" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B15" s="3"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="4"/>
-      <c r="E15" s="4"/>
-      <c r="F15" s="4"/>
-      <c r="G15" s="4"/>
-      <c r="H15" s="4"/>
-      <c r="I15" s="4"/>
-      <c r="J15" s="4"/>
-      <c r="K15" s="4"/>
-      <c r="L15" s="4"/>
-      <c r="M15" s="3"/>
+      <c r="B15" s="2"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3"/>
+      <c r="I15" s="3"/>
+      <c r="J15" s="3"/>
+      <c r="K15" s="3"/>
+      <c r="L15" s="3"/>
+      <c r="M15" s="2"/>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A16" s="5" t="s">
+      <c r="A16" s="20" t="s">
         <v>33</v>
       </c>
-      <c r="B16" s="3" t="s">
+      <c r="B16" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C16" s="3" t="s">
+      <c r="C16" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="D16" s="6">
+      <c r="D16" s="4">
         <v>4</v>
       </c>
-      <c r="E16" s="4" t="s">
+      <c r="E16" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="F16" s="4" t="s">
+      <c r="F16" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="G16" s="1" t="s">
+      <c r="G16" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="H16" s="1"/>
-      <c r="I16" s="6"/>
-      <c r="J16" s="6"/>
-      <c r="K16" s="6"/>
-      <c r="L16" s="6"/>
-      <c r="M16" s="3" t="s">
+      <c r="H16" s="21"/>
+      <c r="I16" s="4"/>
+      <c r="J16" s="4"/>
+      <c r="K16" s="4"/>
+      <c r="L16" s="4"/>
+      <c r="M16" s="2" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="17" spans="1:19" s="10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="5" t="s">
+    <row r="17" spans="1:19" s="17" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="20" t="s">
         <v>39</v>
       </c>
-      <c r="B17" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="C17" s="7" t="s">
+      <c r="B17" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="C17" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="D17" s="8">
+      <c r="D17" s="15">
         <v>7</v>
       </c>
-      <c r="E17" s="9"/>
-      <c r="F17" s="9"/>
-      <c r="G17" s="9"/>
-      <c r="H17" s="8" t="s">
+      <c r="E17" s="16"/>
+      <c r="F17" s="16"/>
+      <c r="G17" s="16"/>
+      <c r="H17" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="I17" s="8" t="s">
+      <c r="I17" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="J17" s="8" t="s">
+      <c r="J17" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="K17" s="9"/>
-      <c r="L17" s="9"/>
-    </row>
-    <row r="18" spans="1:19" s="10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="5"/>
-      <c r="B18" s="7"/>
-      <c r="C18" s="7"/>
-      <c r="D18" s="8"/>
-      <c r="E18" s="9"/>
-      <c r="F18" s="9"/>
-      <c r="G18" s="9"/>
-      <c r="H18" s="8"/>
-      <c r="I18" s="8" t="s">
+      <c r="K17" s="16"/>
+      <c r="L17" s="16"/>
+    </row>
+    <row r="18" spans="1:19" s="17" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="20"/>
+      <c r="B18" s="14"/>
+      <c r="C18" s="14"/>
+      <c r="D18" s="15"/>
+      <c r="E18" s="16"/>
+      <c r="F18" s="16"/>
+      <c r="G18" s="16"/>
+      <c r="H18" s="15"/>
+      <c r="I18" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="J18" s="8" t="s">
+      <c r="J18" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="K18" s="9"/>
-      <c r="L18" s="9"/>
+      <c r="K18" s="16"/>
+      <c r="L18" s="16"/>
     </row>
     <row r="19" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A19" s="5" t="s">
+      <c r="A19" s="20" t="s">
         <v>46</v>
       </c>
-      <c r="B19" s="3" t="s">
+      <c r="B19" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C19" s="3" t="s">
+      <c r="C19" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D19" s="4">
+      <c r="D19" s="3">
         <v>1</v>
       </c>
-      <c r="E19" s="4" t="s">
+      <c r="E19" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="F19" s="6"/>
-      <c r="G19" s="6"/>
-      <c r="H19" s="6"/>
-      <c r="I19" s="6"/>
-      <c r="J19" s="6"/>
-      <c r="K19" s="6"/>
-      <c r="L19" s="6"/>
-      <c r="M19" s="3" t="s">
+      <c r="F19" s="4"/>
+      <c r="G19" s="4"/>
+      <c r="H19" s="4"/>
+      <c r="I19" s="4"/>
+      <c r="J19" s="4"/>
+      <c r="K19" s="4"/>
+      <c r="L19" s="4"/>
+      <c r="M19" s="2" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A20" s="5" t="s">
+      <c r="A20" s="20" t="s">
         <v>49</v>
       </c>
-      <c r="B20" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C20" s="3" t="s">
+      <c r="B20" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C20" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D20" s="4">
+      <c r="D20" s="3">
         <v>8</v>
       </c>
-      <c r="E20" s="1" t="s">
+      <c r="E20" s="21" t="s">
         <v>50</v>
       </c>
-      <c r="F20" s="1"/>
-      <c r="G20" s="1" t="s">
+      <c r="F20" s="21"/>
+      <c r="G20" s="21" t="s">
         <v>51</v>
       </c>
-      <c r="H20" s="1"/>
-      <c r="I20" s="1" t="s">
+      <c r="H20" s="21"/>
+      <c r="I20" s="21" t="s">
         <v>52</v>
       </c>
-      <c r="J20" s="1"/>
-      <c r="K20" s="1" t="s">
+      <c r="J20" s="21"/>
+      <c r="K20" s="21" t="s">
         <v>53</v>
       </c>
-      <c r="L20" s="1"/>
-      <c r="M20" s="3" t="s">
+      <c r="L20" s="21"/>
+      <c r="M20" s="2" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="21" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A21" s="5" t="s">
+      <c r="A21" s="20" t="s">
         <v>55</v>
       </c>
-      <c r="B21" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C21" s="3" t="s">
+      <c r="B21" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C21" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D21" s="4">
+      <c r="D21" s="3">
         <v>8</v>
       </c>
-      <c r="E21" s="1" t="s">
+      <c r="E21" s="21" t="s">
         <v>50</v>
       </c>
-      <c r="F21" s="1"/>
-      <c r="G21" s="1" t="s">
+      <c r="F21" s="21"/>
+      <c r="G21" s="21" t="s">
         <v>51</v>
       </c>
-      <c r="H21" s="1"/>
-      <c r="I21" s="1" t="s">
+      <c r="H21" s="21"/>
+      <c r="I21" s="21" t="s">
         <v>52</v>
       </c>
-      <c r="J21" s="1"/>
-      <c r="K21" s="1" t="s">
+      <c r="J21" s="21"/>
+      <c r="K21" s="21" t="s">
         <v>53</v>
       </c>
-      <c r="L21" s="1"/>
-      <c r="M21" s="3" t="s">
+      <c r="L21" s="21"/>
+      <c r="M21" s="2" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="22" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A22" s="5" t="s">
+      <c r="A22" s="20" t="s">
         <v>57</v>
       </c>
-      <c r="B22" s="3"/>
-      <c r="C22" s="3" t="s">
+      <c r="B22" s="2"/>
+      <c r="C22" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="D22" s="4">
+      <c r="D22" s="3">
         <v>1</v>
       </c>
-      <c r="E22" s="4" t="s">
+      <c r="E22" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="F22" s="6"/>
-      <c r="G22" s="6"/>
-      <c r="H22" s="6"/>
-      <c r="I22" s="6"/>
-      <c r="J22" s="6"/>
-      <c r="K22" s="6"/>
-      <c r="L22" s="6"/>
-      <c r="M22" s="3" t="s">
+      <c r="F22" s="4"/>
+      <c r="G22" s="4"/>
+      <c r="H22" s="4"/>
+      <c r="I22" s="4"/>
+      <c r="J22" s="4"/>
+      <c r="K22" s="4"/>
+      <c r="L22" s="4"/>
+      <c r="M22" s="2" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="23" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A23" s="3" t="s">
+      <c r="A23" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="B23" s="3"/>
-      <c r="C23" s="3" t="s">
+      <c r="B23" s="2"/>
+      <c r="C23" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="D23" s="4">
+      <c r="D23" s="3">
         <v>7</v>
       </c>
-      <c r="E23" s="4">
+      <c r="E23" s="3">
         <v>255</v>
       </c>
-      <c r="F23" s="4">
+      <c r="F23" s="3">
         <v>255</v>
       </c>
-      <c r="G23" s="4">
+      <c r="G23" s="3">
         <v>255</v>
       </c>
-      <c r="H23" s="4">
-        <v>0</v>
-      </c>
-      <c r="I23" s="4">
-        <v>0</v>
-      </c>
-      <c r="J23" s="4">
-        <v>0</v>
-      </c>
-      <c r="K23" s="4">
+      <c r="H23" s="3">
+        <v>0</v>
+      </c>
+      <c r="I23" s="3">
+        <v>0</v>
+      </c>
+      <c r="J23" s="3">
+        <v>0</v>
+      </c>
+      <c r="K23" s="3">
         <v>96</v>
       </c>
-      <c r="L23" s="6"/>
-      <c r="M23" s="3" t="s">
+      <c r="L23" s="4"/>
+      <c r="M23" s="2" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="24" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A24" s="5" t="s">
+      <c r="A24" s="20" t="s">
         <v>63</v>
       </c>
-      <c r="B24" s="3"/>
-      <c r="C24" s="3" t="s">
+      <c r="B24" s="2"/>
+      <c r="C24" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="D24" s="4">
+      <c r="D24" s="3">
         <v>1</v>
       </c>
-      <c r="E24" s="4">
-        <v>0</v>
-      </c>
-      <c r="F24" s="6"/>
-      <c r="G24" s="6"/>
-      <c r="H24" s="6"/>
-      <c r="I24" s="6"/>
-      <c r="J24" s="6"/>
-      <c r="K24" s="6"/>
-      <c r="L24" s="6"/>
-      <c r="M24" s="3" t="s">
+      <c r="E24" s="3">
+        <v>0</v>
+      </c>
+      <c r="F24" s="4"/>
+      <c r="G24" s="4"/>
+      <c r="H24" s="4"/>
+      <c r="I24" s="4"/>
+      <c r="J24" s="4"/>
+      <c r="K24" s="4"/>
+      <c r="L24" s="4"/>
+      <c r="M24" s="2" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="25" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A25" s="5" t="s">
+      <c r="A25" s="20" t="s">
         <v>64</v>
       </c>
-      <c r="B25" s="3" t="s">
+      <c r="B25" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C25" s="3" t="s">
+      <c r="C25" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D25" s="11" t="s">
+      <c r="D25" s="22" t="s">
         <v>65</v>
       </c>
-      <c r="E25" s="11"/>
-      <c r="F25" s="12"/>
-      <c r="G25" s="12"/>
-      <c r="H25" s="12"/>
-      <c r="I25" s="12"/>
-      <c r="J25" s="12"/>
-      <c r="K25" s="12"/>
-      <c r="L25" s="12"/>
-      <c r="M25" s="3" t="s">
+      <c r="E25" s="22"/>
+      <c r="F25" s="23"/>
+      <c r="G25" s="23"/>
+      <c r="H25" s="23"/>
+      <c r="I25" s="23"/>
+      <c r="J25" s="23"/>
+      <c r="K25" s="23"/>
+      <c r="L25" s="23"/>
+      <c r="M25" s="2" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="26" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A26" s="5" t="s">
+      <c r="A26" s="20" t="s">
         <v>67</v>
       </c>
-      <c r="B26" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C26" s="3" t="s">
+      <c r="B26" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C26" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D26" s="4">
+      <c r="D26" s="3">
         <v>1</v>
       </c>
-      <c r="E26" s="4">
-        <v>0</v>
-      </c>
-      <c r="F26" s="6"/>
-      <c r="G26" s="6"/>
-      <c r="H26" s="6"/>
-      <c r="I26" s="6"/>
-      <c r="J26" s="6"/>
-      <c r="K26" s="6"/>
-      <c r="L26" s="6"/>
-      <c r="M26" s="3" t="s">
+      <c r="E26" s="3">
+        <v>0</v>
+      </c>
+      <c r="F26" s="4"/>
+      <c r="G26" s="4"/>
+      <c r="H26" s="4"/>
+      <c r="I26" s="4"/>
+      <c r="J26" s="4"/>
+      <c r="K26" s="4"/>
+      <c r="L26" s="4"/>
+      <c r="M26" s="2" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="27" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A27" s="3" t="s">
+      <c r="A27" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="B27" s="3"/>
-      <c r="C27" s="3" t="s">
+      <c r="B27" s="2"/>
+      <c r="C27" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="D27" s="4">
+      <c r="D27" s="3">
         <v>8</v>
       </c>
-      <c r="E27" s="4">
-        <v>0</v>
-      </c>
-      <c r="F27" s="4">
-        <v>0</v>
-      </c>
-      <c r="G27" s="4">
+      <c r="E27" s="3">
+        <v>0</v>
+      </c>
+      <c r="F27" s="3">
+        <v>0</v>
+      </c>
+      <c r="G27" s="3">
         <v>128</v>
       </c>
-      <c r="H27" s="4">
-        <v>0</v>
-      </c>
-      <c r="I27" s="4">
-        <v>0</v>
-      </c>
-      <c r="J27" s="4">
-        <v>0</v>
-      </c>
-      <c r="K27" s="4">
+      <c r="H27" s="3">
+        <v>0</v>
+      </c>
+      <c r="I27" s="3">
+        <v>0</v>
+      </c>
+      <c r="J27" s="3">
+        <v>0</v>
+      </c>
+      <c r="K27" s="3">
         <v>255</v>
       </c>
-      <c r="L27" s="4">
+      <c r="L27" s="3">
         <v>4</v>
       </c>
-      <c r="M27" s="3" t="s">
+      <c r="M27" s="2" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="28" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A28" s="3"/>
-      <c r="B28" s="3"/>
-      <c r="C28" s="3"/>
-      <c r="D28" s="4"/>
-      <c r="E28" s="4"/>
-      <c r="F28" s="4"/>
-      <c r="G28" s="4"/>
-      <c r="H28" s="4"/>
-      <c r="I28" s="4"/>
-      <c r="J28" s="4"/>
-      <c r="K28" s="4"/>
-      <c r="L28" s="4"/>
+      <c r="A28" s="2"/>
+      <c r="B28" s="2"/>
+      <c r="C28" s="2"/>
+      <c r="D28" s="3"/>
+      <c r="E28" s="3"/>
+      <c r="F28" s="3"/>
+      <c r="G28" s="3"/>
+      <c r="H28" s="3"/>
+      <c r="I28" s="3"/>
+      <c r="J28" s="3"/>
+      <c r="K28" s="3"/>
+      <c r="L28" s="3"/>
     </row>
     <row r="29" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A29" s="3" t="s">
+      <c r="A29" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="B29" s="3"/>
-      <c r="C29" s="3"/>
-      <c r="D29" s="4"/>
-      <c r="E29" s="4"/>
-      <c r="F29" s="4"/>
-      <c r="G29" s="4"/>
-      <c r="H29" s="4"/>
-      <c r="I29" s="4"/>
-      <c r="J29" s="4"/>
-      <c r="K29" s="4"/>
-      <c r="L29" s="6"/>
-      <c r="M29" s="3"/>
+      <c r="B29" s="2"/>
+      <c r="C29" s="2"/>
+      <c r="D29" s="3"/>
+      <c r="E29" s="3"/>
+      <c r="F29" s="3"/>
+      <c r="G29" s="3"/>
+      <c r="H29" s="3"/>
+      <c r="I29" s="3"/>
+      <c r="J29" s="3"/>
+      <c r="K29" s="3"/>
+      <c r="L29" s="4"/>
+      <c r="M29" s="2"/>
     </row>
     <row r="30" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A30" s="5" t="s">
+      <c r="A30" s="20" t="s">
         <v>72</v>
       </c>
-      <c r="B30" s="3"/>
-      <c r="C30" s="3" t="s">
+      <c r="B30" s="2"/>
+      <c r="C30" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="D30" s="4">
+      <c r="D30" s="3">
         <v>8</v>
       </c>
-      <c r="E30" s="4" t="s">
+      <c r="E30" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="F30" s="4" t="s">
+      <c r="F30" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="G30" s="6">
+      <c r="G30" s="4">
         <v>255</v>
       </c>
-      <c r="H30" s="6">
+      <c r="H30" s="4">
         <v>255</v>
       </c>
-      <c r="I30" s="4" t="s">
+      <c r="I30" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="J30" s="4" t="s">
+      <c r="J30" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="K30" s="6" t="s">
+      <c r="K30" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="L30" s="6">
+      <c r="L30" s="4">
         <v>255</v>
       </c>
-      <c r="M30" s="3" t="s">
+      <c r="M30" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="O30" s="2" t="s">
+      <c r="O30" s="9" t="s">
         <v>78</v>
       </c>
-      <c r="S30" s="2" t="s">
+      <c r="S30" s="9" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A31" s="5" t="s">
+    <row r="31" spans="1:19" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A31" s="20" t="s">
         <v>80</v>
       </c>
-      <c r="B31" s="3"/>
-      <c r="C31" s="3" t="s">
+      <c r="B31" s="2"/>
+      <c r="C31" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D31" s="4">
+      <c r="D31" s="3">
         <v>7</v>
       </c>
-      <c r="E31" s="6">
+      <c r="E31" s="4">
         <v>19</v>
       </c>
-      <c r="F31" s="6">
+      <c r="F31" s="4">
         <v>19</v>
       </c>
-      <c r="G31" s="6">
+      <c r="G31" s="4">
         <v>19</v>
       </c>
-      <c r="H31" s="6">
+      <c r="H31" s="4">
         <v>24</v>
       </c>
-      <c r="I31" s="6">
+      <c r="I31" s="4">
         <v>175</v>
       </c>
-      <c r="J31" s="6">
+      <c r="J31" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="K31" s="4">
+        <v>19</v>
+      </c>
+      <c r="L31" s="4"/>
+      <c r="M31" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="32" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A32" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B32" s="2"/>
+      <c r="C32" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="D32" s="3">
+        <v>8</v>
+      </c>
+      <c r="E32" s="3">
         <v>2</v>
       </c>
-      <c r="K31" s="6">
-        <v>19</v>
-      </c>
-      <c r="L31" s="6"/>
-      <c r="M31" s="3" t="s">
+      <c r="F32" s="3">
+        <v>45</v>
+      </c>
+      <c r="G32" s="3">
+        <v>2</v>
+      </c>
+      <c r="H32" s="3">
+        <v>45</v>
+      </c>
+      <c r="I32" s="3">
+        <v>2</v>
+      </c>
+      <c r="J32" s="3">
+        <v>42</v>
+      </c>
+      <c r="K32" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="L32" s="3">
+        <v>129</v>
+      </c>
+      <c r="M32" s="2"/>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A33" s="20" t="s">
+        <v>84</v>
+      </c>
+      <c r="B33" s="2"/>
+      <c r="C33" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D33" s="3">
+        <v>5</v>
+      </c>
+      <c r="E33" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="F33" s="3">
+        <v>0</v>
+      </c>
+      <c r="G33" s="3">
+        <v>255</v>
+      </c>
+      <c r="H33" s="3">
+        <v>255</v>
+      </c>
+      <c r="I33" s="3">
+        <v>0</v>
+      </c>
+      <c r="J33" s="4"/>
+      <c r="K33" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="L33" s="4"/>
+      <c r="M33" s="2" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A32" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="B32" s="3"/>
-      <c r="C32" s="3" t="s">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A34" s="24" t="s">
+        <v>85</v>
+      </c>
+      <c r="B34" s="2"/>
+      <c r="C34" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="D34" s="3">
+        <v>8</v>
+      </c>
+      <c r="E34" s="3">
+        <v>4</v>
+      </c>
+      <c r="F34" s="3">
+        <v>0</v>
+      </c>
+      <c r="G34" s="3">
+        <v>191</v>
+      </c>
+      <c r="H34" s="8">
+        <v>127</v>
+      </c>
+      <c r="I34" s="3">
+        <v>128</v>
+      </c>
+      <c r="J34" s="3">
+        <v>128</v>
+      </c>
+      <c r="K34" s="3">
+        <v>0</v>
+      </c>
+      <c r="L34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="25" t="s">
+        <v>87</v>
+      </c>
+      <c r="B35" s="25"/>
+      <c r="C35" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="D35" s="11"/>
+      <c r="E35" s="11"/>
+      <c r="F35" s="11"/>
+      <c r="G35" s="11"/>
+      <c r="H35" s="12"/>
+      <c r="I35" s="11"/>
+      <c r="J35" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="K35" s="11"/>
+      <c r="L35" s="11"/>
+    </row>
+    <row r="36" spans="1:13" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="25" t="s">
+        <v>90</v>
+      </c>
+      <c r="B36" s="25"/>
+      <c r="C36" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="D36" s="11"/>
+      <c r="E36" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="F36" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="G36" s="11" t="s">
+        <v>93</v>
+      </c>
+      <c r="H36" s="12" t="s">
+        <v>93</v>
+      </c>
+      <c r="I36" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="J36" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="K36" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="L36" s="11" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" s="17" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="20" t="s">
+        <v>97</v>
+      </c>
+      <c r="B37" s="14"/>
+      <c r="C37" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="D37" s="15">
+        <v>7</v>
+      </c>
+      <c r="E37" s="15" t="s">
+        <v>98</v>
+      </c>
+      <c r="F37" s="15" t="s">
+        <v>99</v>
+      </c>
+      <c r="G37" s="16"/>
+      <c r="H37" s="16"/>
+      <c r="I37" s="15" t="s">
+        <v>100</v>
+      </c>
+      <c r="J37" s="15" t="s">
+        <v>101</v>
+      </c>
+      <c r="K37" s="15" t="s">
+        <v>102</v>
+      </c>
+      <c r="L37" s="16"/>
+    </row>
+    <row r="38" spans="1:13" s="17" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="26"/>
+      <c r="D38" s="16"/>
+      <c r="E38" s="15" t="s">
+        <v>103</v>
+      </c>
+      <c r="F38" s="16"/>
+      <c r="G38" s="16"/>
+      <c r="H38" s="16"/>
+      <c r="I38" s="15" t="s">
+        <v>104</v>
+      </c>
+      <c r="J38" s="15" t="s">
+        <v>105</v>
+      </c>
+      <c r="K38" s="15" t="s">
+        <v>106</v>
+      </c>
+      <c r="L38" s="16"/>
+    </row>
+    <row r="39" spans="1:13" s="17" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="26"/>
+      <c r="D39" s="16"/>
+      <c r="E39" s="16"/>
+      <c r="F39" s="16"/>
+      <c r="G39" s="16"/>
+      <c r="H39" s="16"/>
+      <c r="I39" s="15" t="s">
+        <v>107</v>
+      </c>
+      <c r="J39" s="15"/>
+      <c r="K39" s="15" t="s">
+        <v>108</v>
+      </c>
+      <c r="L39" s="16"/>
+    </row>
+    <row r="40" spans="1:13" s="13" customFormat="1" ht="51" x14ac:dyDescent="0.2">
+      <c r="A40" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="C40" s="13" t="s">
+        <v>109</v>
+      </c>
+      <c r="D40" s="18"/>
+      <c r="E40" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="F40" s="18" t="s">
+        <v>110</v>
+      </c>
+      <c r="G40" s="18" t="s">
+        <v>110</v>
+      </c>
+      <c r="H40" s="18"/>
+      <c r="I40" s="11"/>
+      <c r="J40" s="11"/>
+      <c r="K40" s="11" t="s">
+        <v>125</v>
+      </c>
+      <c r="L40" s="1" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A41" s="20" t="s">
+        <v>111</v>
+      </c>
+      <c r="B41" s="2"/>
+      <c r="C41" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="D32" s="4">
+      <c r="D41" s="3">
+        <v>7</v>
+      </c>
+      <c r="E41" s="3">
+        <v>0</v>
+      </c>
+      <c r="F41" s="3">
+        <v>0</v>
+      </c>
+      <c r="G41" s="3">
+        <v>0</v>
+      </c>
+      <c r="H41" s="3">
+        <v>0</v>
+      </c>
+      <c r="I41" s="3">
+        <v>16</v>
+      </c>
+      <c r="J41" s="3">
+        <v>0</v>
+      </c>
+      <c r="K41" s="3">
+        <v>2</v>
+      </c>
+      <c r="L41" s="4"/>
+      <c r="M41" s="9" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A42" s="20" t="s">
+        <v>113</v>
+      </c>
+      <c r="B42" s="2"/>
+      <c r="C42" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="D42" s="3">
         <v>8</v>
       </c>
-      <c r="E32" s="4">
+      <c r="E42" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="F42" s="3">
+        <v>0</v>
+      </c>
+      <c r="G42" s="3">
+        <v>0</v>
+      </c>
+      <c r="H42" s="3">
+        <v>0</v>
+      </c>
+      <c r="I42" s="3">
+        <v>0</v>
+      </c>
+      <c r="J42" s="3">
+        <v>0</v>
+      </c>
+      <c r="K42" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="L42" s="3">
+        <v>106</v>
+      </c>
+      <c r="M42" s="2" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="D43" s="4"/>
+      <c r="E43" s="4"/>
+      <c r="F43" s="4"/>
+      <c r="G43" s="4"/>
+      <c r="H43" s="4"/>
+      <c r="I43" s="4"/>
+      <c r="J43" s="4"/>
+      <c r="K43" s="4"/>
+      <c r="L43" s="4"/>
+    </row>
+    <row r="44" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A44" s="20" t="s">
+        <v>64</v>
+      </c>
+      <c r="B44" s="27" t="s">
+        <v>117</v>
+      </c>
+      <c r="C44" s="27"/>
+      <c r="D44" s="23">
+        <v>8</v>
+      </c>
+      <c r="E44" s="22">
+        <v>6</v>
+      </c>
+      <c r="F44" s="22">
+        <v>1</v>
+      </c>
+      <c r="G44" s="22">
+        <v>255</v>
+      </c>
+      <c r="H44" s="22">
+        <v>0</v>
+      </c>
+      <c r="I44" s="22">
+        <v>0</v>
+      </c>
+      <c r="J44" s="22">
+        <v>0</v>
+      </c>
+      <c r="K44" s="22">
+        <v>0</v>
+      </c>
+      <c r="L44" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13" ht="15" x14ac:dyDescent="0.2">
+      <c r="A45" s="28">
+        <v>47</v>
+      </c>
+      <c r="B45" s="27" t="s">
+        <v>118</v>
+      </c>
+      <c r="C45" s="27" t="s">
+        <v>3</v>
+      </c>
+      <c r="D45" s="23">
+        <v>8</v>
+      </c>
+      <c r="E45" s="29">
+        <v>6</v>
+      </c>
+      <c r="F45" s="29">
+        <v>127</v>
+      </c>
+      <c r="G45" s="29">
         <v>2</v>
       </c>
-      <c r="F32" s="4">
-        <v>45</v>
-      </c>
-      <c r="G32" s="4">
-        <v>2</v>
-      </c>
-      <c r="H32" s="4">
-        <v>45</v>
-      </c>
-      <c r="I32" s="4">
-        <v>2</v>
-      </c>
-      <c r="J32" s="4">
-        <v>42</v>
-      </c>
-      <c r="K32" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="L32" s="4">
+      <c r="H45" s="29">
+        <v>0</v>
+      </c>
+      <c r="I45" s="29">
+        <v>0</v>
+      </c>
+      <c r="J45" s="29">
+        <v>0</v>
+      </c>
+      <c r="K45" s="29">
+        <v>0</v>
+      </c>
+      <c r="L45" s="29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13" ht="15" x14ac:dyDescent="0.2">
+      <c r="A46" s="28">
+        <v>41</v>
+      </c>
+      <c r="B46" s="27" t="s">
+        <v>119</v>
+      </c>
+      <c r="C46" s="27" t="s">
+        <v>8</v>
+      </c>
+      <c r="D46" s="23">
+        <v>8</v>
+      </c>
+      <c r="E46" s="29">
+        <v>7</v>
+      </c>
+      <c r="F46" s="29">
+        <v>12</v>
+      </c>
+      <c r="G46" s="29">
+        <v>48</v>
+      </c>
+      <c r="H46" s="29">
+        <v>242</v>
+      </c>
+      <c r="I46" s="29">
+        <v>23</v>
+      </c>
+      <c r="J46" s="29">
+        <v>0</v>
+      </c>
+      <c r="K46" s="29">
+        <v>0</v>
+      </c>
+      <c r="L46" s="29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13" ht="15" x14ac:dyDescent="0.2">
+      <c r="A47" s="28">
+        <v>47</v>
+      </c>
+      <c r="B47" s="27" t="s">
+        <v>118</v>
+      </c>
+      <c r="C47" s="27" t="s">
+        <v>3</v>
+      </c>
+      <c r="D47" s="23">
+        <v>8</v>
+      </c>
+      <c r="E47" s="29">
+        <v>8</v>
+      </c>
+      <c r="F47" s="29">
+        <v>92</v>
+      </c>
+      <c r="G47" s="29">
+        <v>244</v>
+      </c>
+      <c r="H47" s="29">
+        <v>101</v>
+      </c>
+      <c r="I47" s="29">
+        <v>34</v>
+      </c>
+      <c r="J47" s="29">
+        <v>1</v>
+      </c>
+      <c r="K47" s="29">
+        <v>0</v>
+      </c>
+      <c r="L47" s="29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13" ht="15" x14ac:dyDescent="0.2">
+      <c r="A48" s="28">
+        <v>41</v>
+      </c>
+      <c r="B48" s="27" t="s">
+        <v>119</v>
+      </c>
+      <c r="C48" s="27" t="s">
+        <v>8</v>
+      </c>
+      <c r="D48" s="23">
+        <v>8</v>
+      </c>
+      <c r="E48" s="29">
         <v>129</v>
       </c>
-      <c r="M32" s="3"/>
-    </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A33" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="B33" s="3"/>
-      <c r="C33" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D33" s="4">
-        <v>5</v>
-      </c>
-      <c r="E33" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="F33" s="4">
-        <v>0</v>
-      </c>
-      <c r="G33" s="4">
-        <v>255</v>
-      </c>
-      <c r="H33" s="4">
-        <v>255</v>
-      </c>
-      <c r="I33" s="4">
-        <v>0</v>
-      </c>
-      <c r="J33" s="6"/>
-      <c r="K33" s="6"/>
-      <c r="L33" s="6"/>
-      <c r="M33" s="3" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A34" s="13" t="s">
-        <v>86</v>
-      </c>
-      <c r="B34" s="3"/>
-      <c r="C34" s="14" t="s">
-        <v>87</v>
-      </c>
-      <c r="D34" s="4">
+      <c r="F48" s="29">
+        <v>127</v>
+      </c>
+      <c r="G48" s="29">
+        <v>0</v>
+      </c>
+      <c r="H48" s="29">
+        <v>0</v>
+      </c>
+      <c r="I48" s="29">
+        <v>0</v>
+      </c>
+      <c r="J48" s="29">
+        <v>0</v>
+      </c>
+      <c r="K48" s="29">
+        <v>0</v>
+      </c>
+      <c r="L48" s="29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A49" s="20" t="s">
+        <v>64</v>
+      </c>
+      <c r="B49" s="27" t="s">
+        <v>120</v>
+      </c>
+      <c r="C49" s="30"/>
+      <c r="D49" s="23">
         <v>8</v>
       </c>
-      <c r="E34" s="4">
-        <v>4</v>
-      </c>
-      <c r="F34" s="4">
-        <v>0</v>
-      </c>
-      <c r="G34" s="4">
-        <v>191</v>
-      </c>
-      <c r="H34" s="15">
-        <v>127</v>
-      </c>
-      <c r="I34" s="4">
-        <v>128</v>
-      </c>
-      <c r="J34" s="4">
-        <v>128</v>
-      </c>
-      <c r="K34" s="4">
-        <v>0</v>
-      </c>
-      <c r="L34" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:13" s="20" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="16" t="s">
-        <v>88</v>
-      </c>
-      <c r="B35" s="16"/>
-      <c r="C35" s="17" t="s">
-        <v>89</v>
-      </c>
-      <c r="D35" s="18"/>
-      <c r="E35" s="18"/>
-      <c r="F35" s="18"/>
-      <c r="G35" s="18"/>
-      <c r="H35" s="19"/>
-      <c r="I35" s="18"/>
-      <c r="J35" s="18" t="s">
-        <v>90</v>
-      </c>
-      <c r="K35" s="18"/>
-      <c r="L35" s="18"/>
-    </row>
-    <row r="36" spans="1:13" s="20" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="16" t="s">
-        <v>91</v>
-      </c>
-      <c r="B36" s="16"/>
-      <c r="C36" s="17" t="s">
-        <v>92</v>
-      </c>
-      <c r="D36" s="18"/>
-      <c r="E36" s="18" t="s">
-        <v>93</v>
-      </c>
-      <c r="F36" s="18" t="s">
-        <v>93</v>
-      </c>
-      <c r="G36" s="18" t="s">
-        <v>94</v>
-      </c>
-      <c r="H36" s="19" t="s">
-        <v>94</v>
-      </c>
-      <c r="I36" s="18" t="s">
-        <v>95</v>
-      </c>
-      <c r="J36" s="18" t="s">
-        <v>96</v>
-      </c>
-      <c r="K36" s="18" t="s">
-        <v>97</v>
-      </c>
-      <c r="L36" s="18" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13" s="10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="5" t="s">
-        <v>98</v>
-      </c>
-      <c r="B37" s="7"/>
-      <c r="C37" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="D37" s="8">
-        <v>7</v>
-      </c>
-      <c r="E37" s="8" t="s">
-        <v>99</v>
-      </c>
-      <c r="F37" s="8" t="s">
-        <v>100</v>
-      </c>
-      <c r="G37" s="9"/>
-      <c r="H37" s="9"/>
-      <c r="I37" s="8" t="s">
-        <v>101</v>
-      </c>
-      <c r="J37" s="8" t="s">
-        <v>102</v>
-      </c>
-      <c r="K37" s="8" t="s">
-        <v>103</v>
-      </c>
-      <c r="L37" s="9"/>
-    </row>
-    <row r="38" spans="1:13" s="10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="21"/>
-      <c r="D38" s="9"/>
-      <c r="E38" s="8" t="s">
-        <v>104</v>
-      </c>
-      <c r="F38" s="9"/>
-      <c r="G38" s="9"/>
-      <c r="H38" s="9"/>
-      <c r="I38" s="8" t="s">
-        <v>105</v>
-      </c>
-      <c r="J38" s="8" t="s">
-        <v>106</v>
-      </c>
-      <c r="K38" s="8" t="s">
-        <v>107</v>
-      </c>
-      <c r="L38" s="9"/>
-    </row>
-    <row r="39" spans="1:13" s="10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="21"/>
-      <c r="D39" s="9"/>
-      <c r="E39" s="9"/>
-      <c r="F39" s="9"/>
-      <c r="G39" s="9"/>
-      <c r="H39" s="9"/>
-      <c r="I39" s="8" t="s">
-        <v>108</v>
-      </c>
-      <c r="J39" s="8"/>
-      <c r="K39" s="8" t="s">
-        <v>109</v>
-      </c>
-      <c r="L39" s="9"/>
-    </row>
-    <row r="40" spans="1:13" s="20" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="20" t="s">
-        <v>61</v>
-      </c>
-      <c r="C40" s="20" t="s">
-        <v>110</v>
-      </c>
-      <c r="D40" s="22"/>
-      <c r="E40" s="22" t="s">
-        <v>111</v>
-      </c>
-      <c r="F40" s="22"/>
-      <c r="G40" s="22"/>
-      <c r="H40" s="22"/>
-      <c r="I40" s="18"/>
-      <c r="J40" s="18"/>
-      <c r="K40" s="18"/>
-      <c r="L40" s="22"/>
-    </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A41" s="5" t="s">
-        <v>112</v>
-      </c>
-      <c r="B41" s="3"/>
-      <c r="C41" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="D41" s="4">
-        <v>7</v>
-      </c>
-      <c r="E41" s="4">
-        <v>0</v>
-      </c>
-      <c r="F41" s="4">
-        <v>0</v>
-      </c>
-      <c r="G41" s="4">
-        <v>0</v>
-      </c>
-      <c r="H41" s="4">
-        <v>0</v>
-      </c>
-      <c r="I41" s="4">
-        <v>16</v>
-      </c>
-      <c r="J41" s="4">
-        <v>0</v>
-      </c>
-      <c r="K41" s="4">
-        <v>2</v>
-      </c>
-      <c r="L41" s="6"/>
-      <c r="M41" s="2" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A42" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="B42" s="3"/>
-      <c r="C42" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="D42" s="4">
-        <v>8</v>
-      </c>
-      <c r="E42" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="F42" s="4">
-        <v>0</v>
-      </c>
-      <c r="G42" s="4">
-        <v>0</v>
-      </c>
-      <c r="H42" s="4">
-        <v>0</v>
-      </c>
-      <c r="I42" s="4">
-        <v>0</v>
-      </c>
-      <c r="J42" s="4">
-        <v>0</v>
-      </c>
-      <c r="K42" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="L42" s="4">
-        <v>106</v>
-      </c>
-      <c r="M42" s="3" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="D43" s="6"/>
-      <c r="E43" s="6"/>
-      <c r="F43" s="6"/>
-      <c r="G43" s="6"/>
-      <c r="H43" s="6"/>
-      <c r="I43" s="6"/>
-      <c r="J43" s="6"/>
-      <c r="K43" s="6"/>
-      <c r="L43" s="6"/>
-    </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A44" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="B44" s="23" t="s">
-        <v>118</v>
-      </c>
-      <c r="C44" s="23"/>
-      <c r="D44" s="12">
-        <v>8</v>
-      </c>
-      <c r="E44" s="11">
-        <v>6</v>
-      </c>
-      <c r="F44" s="11">
-        <v>1</v>
-      </c>
-      <c r="G44" s="11">
-        <v>255</v>
-      </c>
-      <c r="H44" s="11">
-        <v>0</v>
-      </c>
-      <c r="I44" s="11">
-        <v>0</v>
-      </c>
-      <c r="J44" s="11">
-        <v>0</v>
-      </c>
-      <c r="K44" s="11">
-        <v>0</v>
-      </c>
-      <c r="L44" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13" ht="15" x14ac:dyDescent="0.2">
-      <c r="A45" s="24">
-        <v>47</v>
-      </c>
-      <c r="B45" s="23" t="s">
-        <v>119</v>
-      </c>
-      <c r="C45" s="23" t="s">
-        <v>3</v>
-      </c>
-      <c r="D45" s="12">
-        <v>8</v>
-      </c>
-      <c r="E45" s="25">
-        <v>6</v>
-      </c>
-      <c r="F45" s="25">
-        <v>127</v>
-      </c>
-      <c r="G45" s="25">
-        <v>2</v>
-      </c>
-      <c r="H45" s="25">
-        <v>0</v>
-      </c>
-      <c r="I45" s="25">
-        <v>0</v>
-      </c>
-      <c r="J45" s="25">
-        <v>0</v>
-      </c>
-      <c r="K45" s="25">
-        <v>0</v>
-      </c>
-      <c r="L45" s="25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13" ht="15" x14ac:dyDescent="0.2">
-      <c r="A46" s="24">
-        <v>41</v>
-      </c>
-      <c r="B46" s="23" t="s">
-        <v>120</v>
-      </c>
-      <c r="C46" s="23" t="s">
-        <v>8</v>
-      </c>
-      <c r="D46" s="12">
-        <v>8</v>
-      </c>
-      <c r="E46" s="25">
-        <v>7</v>
-      </c>
-      <c r="F46" s="25">
-        <v>12</v>
-      </c>
-      <c r="G46" s="25">
-        <v>48</v>
-      </c>
-      <c r="H46" s="25">
-        <v>242</v>
-      </c>
-      <c r="I46" s="25">
-        <v>23</v>
-      </c>
-      <c r="J46" s="25">
-        <v>0</v>
-      </c>
-      <c r="K46" s="25">
-        <v>0</v>
-      </c>
-      <c r="L46" s="25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:13" ht="15" x14ac:dyDescent="0.2">
-      <c r="A47" s="24">
-        <v>47</v>
-      </c>
-      <c r="B47" s="23" t="s">
-        <v>119</v>
-      </c>
-      <c r="C47" s="23" t="s">
-        <v>3</v>
-      </c>
-      <c r="D47" s="12">
-        <v>8</v>
-      </c>
-      <c r="E47" s="25">
-        <v>8</v>
-      </c>
-      <c r="F47" s="25">
-        <v>92</v>
-      </c>
-      <c r="G47" s="25">
-        <v>244</v>
-      </c>
-      <c r="H47" s="25">
-        <v>101</v>
-      </c>
-      <c r="I47" s="25">
-        <v>34</v>
-      </c>
-      <c r="J47" s="25">
-        <v>1</v>
-      </c>
-      <c r="K47" s="25">
-        <v>0</v>
-      </c>
-      <c r="L47" s="25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13" ht="15" x14ac:dyDescent="0.2">
-      <c r="A48" s="24">
-        <v>41</v>
-      </c>
-      <c r="B48" s="23" t="s">
-        <v>120</v>
-      </c>
-      <c r="C48" s="23" t="s">
-        <v>8</v>
-      </c>
-      <c r="D48" s="12">
-        <v>8</v>
-      </c>
-      <c r="E48" s="25">
-        <v>129</v>
-      </c>
-      <c r="F48" s="25">
-        <v>127</v>
-      </c>
-      <c r="G48" s="25">
-        <v>0</v>
-      </c>
-      <c r="H48" s="25">
-        <v>0</v>
-      </c>
-      <c r="I48" s="25">
-        <v>0</v>
-      </c>
-      <c r="J48" s="25">
-        <v>0</v>
-      </c>
-      <c r="K48" s="25">
-        <v>0</v>
-      </c>
-      <c r="L48" s="25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A49" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="B49" s="23" t="s">
+      <c r="E49" s="22">
+        <v>0</v>
+      </c>
+      <c r="F49" s="22">
+        <v>0</v>
+      </c>
+      <c r="G49" s="22">
+        <v>0</v>
+      </c>
+      <c r="H49" s="22">
+        <v>0</v>
+      </c>
+      <c r="I49" s="22">
+        <v>0</v>
+      </c>
+      <c r="J49" s="22">
+        <v>0</v>
+      </c>
+      <c r="K49" s="22">
+        <v>0</v>
+      </c>
+      <c r="L49" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A52" s="9" t="s">
         <v>121</v>
-      </c>
-      <c r="C49" s="26"/>
-      <c r="D49" s="12">
-        <v>8</v>
-      </c>
-      <c r="E49" s="11">
-        <v>0</v>
-      </c>
-      <c r="F49" s="11">
-        <v>0</v>
-      </c>
-      <c r="G49" s="11">
-        <v>0</v>
-      </c>
-      <c r="H49" s="11">
-        <v>0</v>
-      </c>
-      <c r="I49" s="11">
-        <v>0</v>
-      </c>
-      <c r="J49" s="11">
-        <v>0</v>
-      </c>
-      <c r="K49" s="11">
-        <v>0</v>
-      </c>
-      <c r="L49" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A52" s="2" t="s">
-        <v>122</v>
       </c>
     </row>
   </sheetData>

--- a/RX8CanBus20-05-2020_Will_additions.xlsx
+++ b/RX8CanBus20-05-2020_Will_additions.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="123">
   <si>
     <t>ABS / DSC</t>
   </si>
@@ -281,6 +281,9 @@
     <t>231</t>
   </si>
   <si>
+    <t>15 or 255</t>
+  </si>
+  <si>
     <t>240</t>
   </si>
   <si>
@@ -390,31 +393,13 @@
   </si>
   <si>
     <t>*Will's additions from the chinese arduino script</t>
-  </si>
-  <si>
-    <t>and again throttle pedal</t>
-  </si>
-  <si>
-    <t>15 out of gear, 255 in gear</t>
-  </si>
-  <si>
-    <t>minus 1 of number: brake, 3: idle, 35: third injector, 19 initial torque (fuel dump)</t>
-  </si>
-  <si>
-    <t>96 handlebrake, 0 off</t>
-  </si>
-  <si>
-    <t>maybe fuel tank percentage</t>
-  </si>
-  <si>
-    <t>fuel level(/2.55) These three possibly mean three fuel sensors, with a math function for byte 7</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -453,11 +438,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="7">
@@ -512,98 +492,40 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="1" fontId="6" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="1" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="1" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="1" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="1" fontId="3" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="1" fontId="4" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="1" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="1" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="1" fontId="3" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="1" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="1" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="1" fontId="3" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="1" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="3" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="3" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="4" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="1" fontId="3" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="1" fontId="4" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="1" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="3" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
+      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="5" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
+      <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink 2" xfId="1"/>
@@ -956,1247 +878,1236 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AMJ52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C40" sqref="C40"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="B39" sqref="B39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.42578125" style="9" customWidth="1"/>
-    <col min="2" max="2" width="46.85546875" style="9" customWidth="1"/>
-    <col min="3" max="3" width="57.140625" style="9" customWidth="1"/>
-    <col min="4" max="4" width="9.140625" style="9"/>
-    <col min="5" max="5" width="22.140625" style="9" customWidth="1"/>
-    <col min="6" max="6" width="27.28515625" style="9" customWidth="1"/>
-    <col min="7" max="7" width="9.140625" style="9"/>
-    <col min="8" max="8" width="12.85546875" style="9" customWidth="1"/>
-    <col min="9" max="9" width="33.5703125" style="9" customWidth="1"/>
-    <col min="10" max="10" width="25.85546875" style="9" customWidth="1"/>
-    <col min="11" max="11" width="30.42578125" style="9" customWidth="1"/>
-    <col min="12" max="12" width="16.85546875" style="9" customWidth="1"/>
-    <col min="13" max="13" width="18.42578125" style="9" customWidth="1"/>
-    <col min="14" max="1024" width="9.140625" style="9"/>
-    <col min="1025" max="16384" width="9.140625" style="19"/>
+    <col min="1" max="1" width="10.42578125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="46.85546875" style="2" customWidth="1"/>
+    <col min="3" max="3" width="57.140625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="9.140625" style="2"/>
+    <col min="5" max="5" width="22.140625" style="2" customWidth="1"/>
+    <col min="6" max="6" width="27.28515625" style="2" customWidth="1"/>
+    <col min="7" max="7" width="9.140625" style="2"/>
+    <col min="8" max="8" width="12.85546875" style="2" customWidth="1"/>
+    <col min="9" max="9" width="33.5703125" style="2" customWidth="1"/>
+    <col min="10" max="10" width="25.85546875" style="2" customWidth="1"/>
+    <col min="11" max="11" width="30.42578125" style="2" customWidth="1"/>
+    <col min="12" max="12" width="16.85546875" style="2" customWidth="1"/>
+    <col min="13" max="13" width="18.42578125" style="2" customWidth="1"/>
+    <col min="14" max="1024" width="9.140625" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="3" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="3" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="3" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="3" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="3" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="3" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A7" s="2" t="s">
+      <c r="A7" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="3" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A8" s="2" t="s">
+      <c r="A8" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="3" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A9" s="2" t="s">
+      <c r="A9" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B9" s="3" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A10" s="2" t="s">
+      <c r="A10" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B10" s="3" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A11" s="2" t="s">
+      <c r="A11" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="B11" s="3" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A12" s="2"/>
-      <c r="B12" s="2"/>
+      <c r="A12" s="3"/>
+      <c r="B12" s="3"/>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A13" s="2" t="s">
+      <c r="A13" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="D13" s="2" t="s">
+      <c r="D13" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="E13" s="2" t="s">
+      <c r="E13" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="F13" s="2" t="s">
+      <c r="F13" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="G13" s="2" t="s">
+      <c r="G13" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="H13" s="2" t="s">
+      <c r="H13" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="I13" s="2" t="s">
+      <c r="I13" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="J13" s="2" t="s">
+      <c r="J13" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="K13" s="2" t="s">
+      <c r="K13" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="L13" s="2" t="s">
+      <c r="L13" s="3" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A14" s="2" t="s">
+      <c r="A14" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="B14" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="C14" s="2" t="s">
+      <c r="C14" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="D14" s="3" t="s">
+      <c r="D14" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="E14" s="3">
-        <v>0</v>
-      </c>
-      <c r="F14" s="3">
+      <c r="E14" s="4">
+        <v>0</v>
+      </c>
+      <c r="F14" s="4">
         <v>1</v>
       </c>
-      <c r="G14" s="3">
+      <c r="G14" s="4">
         <v>2</v>
       </c>
-      <c r="H14" s="3">
+      <c r="H14" s="4">
         <v>3</v>
       </c>
-      <c r="I14" s="3">
+      <c r="I14" s="4">
         <v>4</v>
       </c>
-      <c r="J14" s="3">
+      <c r="J14" s="4">
         <v>5</v>
       </c>
-      <c r="K14" s="3">
+      <c r="K14" s="4">
         <v>6</v>
       </c>
-      <c r="L14" s="3">
+      <c r="L14" s="4">
         <v>7</v>
       </c>
-      <c r="M14" s="2" t="s">
+      <c r="M14" s="3" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A15" s="2" t="s">
+      <c r="A15" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="B15" s="2"/>
-      <c r="C15" s="2"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
-      <c r="F15" s="3"/>
-      <c r="G15" s="3"/>
-      <c r="H15" s="3"/>
-      <c r="I15" s="3"/>
-      <c r="J15" s="3"/>
-      <c r="K15" s="3"/>
-      <c r="L15" s="3"/>
-      <c r="M15" s="2"/>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="4"/>
+      <c r="E15" s="4"/>
+      <c r="F15" s="4"/>
+      <c r="G15" s="4"/>
+      <c r="H15" s="4"/>
+      <c r="I15" s="4"/>
+      <c r="J15" s="4"/>
+      <c r="K15" s="4"/>
+      <c r="L15" s="4"/>
+      <c r="M15" s="3"/>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A16" s="20" t="s">
+      <c r="A16" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="B16" s="2" t="s">
+      <c r="B16" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C16" s="2" t="s">
+      <c r="C16" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="D16" s="4">
+      <c r="D16" s="6">
         <v>4</v>
       </c>
-      <c r="E16" s="3" t="s">
+      <c r="E16" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="F16" s="3" t="s">
+      <c r="F16" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="G16" s="21" t="s">
+      <c r="G16" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="H16" s="21"/>
-      <c r="I16" s="4"/>
-      <c r="J16" s="4"/>
-      <c r="K16" s="4"/>
-      <c r="L16" s="4"/>
-      <c r="M16" s="2" t="s">
+      <c r="H16" s="1"/>
+      <c r="I16" s="6"/>
+      <c r="J16" s="6"/>
+      <c r="K16" s="6"/>
+      <c r="L16" s="6"/>
+      <c r="M16" s="3" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="17" spans="1:19" s="17" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="20" t="s">
+    <row r="17" spans="1:19" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="B17" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="C17" s="14" t="s">
+      <c r="B17" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="C17" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="D17" s="15">
+      <c r="D17" s="8">
         <v>7</v>
       </c>
-      <c r="E17" s="16"/>
-      <c r="F17" s="16"/>
-      <c r="G17" s="16"/>
-      <c r="H17" s="15" t="s">
+      <c r="E17" s="9"/>
+      <c r="F17" s="9"/>
+      <c r="G17" s="9"/>
+      <c r="H17" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="I17" s="15" t="s">
+      <c r="I17" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="J17" s="15" t="s">
+      <c r="J17" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="K17" s="16"/>
-      <c r="L17" s="16"/>
-    </row>
-    <row r="18" spans="1:19" s="17" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="20"/>
-      <c r="B18" s="14"/>
-      <c r="C18" s="14"/>
-      <c r="D18" s="15"/>
-      <c r="E18" s="16"/>
-      <c r="F18" s="16"/>
-      <c r="G18" s="16"/>
-      <c r="H18" s="15"/>
-      <c r="I18" s="15" t="s">
+      <c r="K17" s="9"/>
+      <c r="L17" s="9"/>
+    </row>
+    <row r="18" spans="1:19" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="5"/>
+      <c r="B18" s="7"/>
+      <c r="C18" s="7"/>
+      <c r="D18" s="8"/>
+      <c r="E18" s="9"/>
+      <c r="F18" s="9"/>
+      <c r="G18" s="9"/>
+      <c r="H18" s="8"/>
+      <c r="I18" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="J18" s="15" t="s">
+      <c r="J18" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="K18" s="16"/>
-      <c r="L18" s="16"/>
+      <c r="K18" s="9"/>
+      <c r="L18" s="9"/>
     </row>
     <row r="19" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A19" s="20" t="s">
+      <c r="A19" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="B19" s="2" t="s">
+      <c r="B19" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C19" s="2" t="s">
+      <c r="C19" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D19" s="3">
+      <c r="D19" s="4">
         <v>1</v>
       </c>
-      <c r="E19" s="3" t="s">
+      <c r="E19" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="F19" s="4"/>
-      <c r="G19" s="4"/>
-      <c r="H19" s="4"/>
-      <c r="I19" s="4"/>
-      <c r="J19" s="4"/>
-      <c r="K19" s="4"/>
-      <c r="L19" s="4"/>
-      <c r="M19" s="2" t="s">
+      <c r="F19" s="6"/>
+      <c r="G19" s="6"/>
+      <c r="H19" s="6"/>
+      <c r="I19" s="6"/>
+      <c r="J19" s="6"/>
+      <c r="K19" s="6"/>
+      <c r="L19" s="6"/>
+      <c r="M19" s="3" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A20" s="20" t="s">
+      <c r="A20" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="B20" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C20" s="2" t="s">
+      <c r="B20" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C20" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D20" s="3">
+      <c r="D20" s="4">
         <v>8</v>
       </c>
-      <c r="E20" s="21" t="s">
+      <c r="E20" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="F20" s="21"/>
-      <c r="G20" s="21" t="s">
+      <c r="F20" s="1"/>
+      <c r="G20" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="H20" s="21"/>
-      <c r="I20" s="21" t="s">
+      <c r="H20" s="1"/>
+      <c r="I20" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="J20" s="21"/>
-      <c r="K20" s="21" t="s">
+      <c r="J20" s="1"/>
+      <c r="K20" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="L20" s="21"/>
-      <c r="M20" s="2" t="s">
+      <c r="L20" s="1"/>
+      <c r="M20" s="3" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="21" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A21" s="20" t="s">
+      <c r="A21" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="B21" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C21" s="2" t="s">
+      <c r="B21" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C21" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D21" s="3">
+      <c r="D21" s="4">
         <v>8</v>
       </c>
-      <c r="E21" s="21" t="s">
+      <c r="E21" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="F21" s="21"/>
-      <c r="G21" s="21" t="s">
+      <c r="F21" s="1"/>
+      <c r="G21" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="H21" s="21"/>
-      <c r="I21" s="21" t="s">
+      <c r="H21" s="1"/>
+      <c r="I21" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="J21" s="21"/>
-      <c r="K21" s="21" t="s">
+      <c r="J21" s="1"/>
+      <c r="K21" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="L21" s="21"/>
-      <c r="M21" s="2" t="s">
+      <c r="L21" s="1"/>
+      <c r="M21" s="3" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="22" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A22" s="20" t="s">
+      <c r="A22" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="B22" s="2"/>
-      <c r="C22" s="2" t="s">
+      <c r="B22" s="3"/>
+      <c r="C22" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="D22" s="3">
+      <c r="D22" s="4">
         <v>1</v>
       </c>
-      <c r="E22" s="3" t="s">
+      <c r="E22" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="F22" s="4"/>
-      <c r="G22" s="4"/>
-      <c r="H22" s="4"/>
-      <c r="I22" s="4"/>
-      <c r="J22" s="4"/>
-      <c r="K22" s="4"/>
-      <c r="L22" s="4"/>
-      <c r="M22" s="2" t="s">
+      <c r="F22" s="6"/>
+      <c r="G22" s="6"/>
+      <c r="H22" s="6"/>
+      <c r="I22" s="6"/>
+      <c r="J22" s="6"/>
+      <c r="K22" s="6"/>
+      <c r="L22" s="6"/>
+      <c r="M22" s="3" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="23" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A23" s="2" t="s">
+      <c r="A23" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="B23" s="2"/>
-      <c r="C23" s="2" t="s">
+      <c r="B23" s="3"/>
+      <c r="C23" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="D23" s="3">
+      <c r="D23" s="4">
         <v>7</v>
       </c>
-      <c r="E23" s="3">
+      <c r="E23" s="4">
         <v>255</v>
       </c>
-      <c r="F23" s="3">
+      <c r="F23" s="4">
         <v>255</v>
       </c>
-      <c r="G23" s="3">
+      <c r="G23" s="4">
         <v>255</v>
       </c>
-      <c r="H23" s="3">
-        <v>0</v>
-      </c>
-      <c r="I23" s="3">
-        <v>0</v>
-      </c>
-      <c r="J23" s="3">
-        <v>0</v>
-      </c>
-      <c r="K23" s="3">
+      <c r="H23" s="4">
+        <v>0</v>
+      </c>
+      <c r="I23" s="4">
+        <v>0</v>
+      </c>
+      <c r="J23" s="4">
+        <v>0</v>
+      </c>
+      <c r="K23" s="4">
         <v>96</v>
       </c>
-      <c r="L23" s="4"/>
-      <c r="M23" s="2" t="s">
+      <c r="L23" s="6"/>
+      <c r="M23" s="3" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="24" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A24" s="20" t="s">
+      <c r="A24" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="B24" s="2"/>
-      <c r="C24" s="2" t="s">
+      <c r="B24" s="3"/>
+      <c r="C24" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="D24" s="3">
+      <c r="D24" s="4">
         <v>1</v>
       </c>
-      <c r="E24" s="3">
-        <v>0</v>
-      </c>
-      <c r="F24" s="4"/>
-      <c r="G24" s="4"/>
-      <c r="H24" s="4"/>
-      <c r="I24" s="4"/>
-      <c r="J24" s="4"/>
-      <c r="K24" s="4"/>
-      <c r="L24" s="4"/>
-      <c r="M24" s="2" t="s">
+      <c r="E24" s="4">
+        <v>0</v>
+      </c>
+      <c r="F24" s="6"/>
+      <c r="G24" s="6"/>
+      <c r="H24" s="6"/>
+      <c r="I24" s="6"/>
+      <c r="J24" s="6"/>
+      <c r="K24" s="6"/>
+      <c r="L24" s="6"/>
+      <c r="M24" s="3" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="25" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A25" s="20" t="s">
+      <c r="A25" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="B25" s="2" t="s">
+      <c r="B25" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C25" s="2" t="s">
+      <c r="C25" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D25" s="22" t="s">
+      <c r="D25" s="11" t="s">
         <v>65</v>
       </c>
-      <c r="E25" s="22"/>
-      <c r="F25" s="23"/>
-      <c r="G25" s="23"/>
-      <c r="H25" s="23"/>
-      <c r="I25" s="23"/>
-      <c r="J25" s="23"/>
-      <c r="K25" s="23"/>
-      <c r="L25" s="23"/>
-      <c r="M25" s="2" t="s">
+      <c r="E25" s="11"/>
+      <c r="F25" s="12"/>
+      <c r="G25" s="12"/>
+      <c r="H25" s="12"/>
+      <c r="I25" s="12"/>
+      <c r="J25" s="12"/>
+      <c r="K25" s="12"/>
+      <c r="L25" s="12"/>
+      <c r="M25" s="3" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="26" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A26" s="20" t="s">
+      <c r="A26" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="B26" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C26" s="2" t="s">
+      <c r="B26" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C26" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D26" s="3">
+      <c r="D26" s="4">
         <v>1</v>
       </c>
-      <c r="E26" s="3">
-        <v>0</v>
-      </c>
-      <c r="F26" s="4"/>
-      <c r="G26" s="4"/>
-      <c r="H26" s="4"/>
-      <c r="I26" s="4"/>
-      <c r="J26" s="4"/>
-      <c r="K26" s="4"/>
-      <c r="L26" s="4"/>
-      <c r="M26" s="2" t="s">
+      <c r="E26" s="4">
+        <v>0</v>
+      </c>
+      <c r="F26" s="6"/>
+      <c r="G26" s="6"/>
+      <c r="H26" s="6"/>
+      <c r="I26" s="6"/>
+      <c r="J26" s="6"/>
+      <c r="K26" s="6"/>
+      <c r="L26" s="6"/>
+      <c r="M26" s="3" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="27" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A27" s="2" t="s">
+      <c r="A27" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="B27" s="2"/>
-      <c r="C27" s="2" t="s">
+      <c r="B27" s="3"/>
+      <c r="C27" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="D27" s="3">
+      <c r="D27" s="4">
         <v>8</v>
       </c>
-      <c r="E27" s="3">
-        <v>0</v>
-      </c>
-      <c r="F27" s="3">
-        <v>0</v>
-      </c>
-      <c r="G27" s="3">
+      <c r="E27" s="4">
+        <v>0</v>
+      </c>
+      <c r="F27" s="4">
+        <v>0</v>
+      </c>
+      <c r="G27" s="4">
         <v>128</v>
       </c>
-      <c r="H27" s="3">
-        <v>0</v>
-      </c>
-      <c r="I27" s="3">
-        <v>0</v>
-      </c>
-      <c r="J27" s="3">
-        <v>0</v>
-      </c>
-      <c r="K27" s="3">
+      <c r="H27" s="4">
+        <v>0</v>
+      </c>
+      <c r="I27" s="4">
+        <v>0</v>
+      </c>
+      <c r="J27" s="4">
+        <v>0</v>
+      </c>
+      <c r="K27" s="4">
         <v>255</v>
       </c>
-      <c r="L27" s="3">
+      <c r="L27" s="4">
         <v>4</v>
       </c>
-      <c r="M27" s="2" t="s">
+      <c r="M27" s="3" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="28" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A28" s="2"/>
-      <c r="B28" s="2"/>
-      <c r="C28" s="2"/>
-      <c r="D28" s="3"/>
-      <c r="E28" s="3"/>
-      <c r="F28" s="3"/>
-      <c r="G28" s="3"/>
-      <c r="H28" s="3"/>
-      <c r="I28" s="3"/>
-      <c r="J28" s="3"/>
-      <c r="K28" s="3"/>
-      <c r="L28" s="3"/>
+      <c r="A28" s="3"/>
+      <c r="B28" s="3"/>
+      <c r="C28" s="3"/>
+      <c r="D28" s="4"/>
+      <c r="E28" s="4"/>
+      <c r="F28" s="4"/>
+      <c r="G28" s="4"/>
+      <c r="H28" s="4"/>
+      <c r="I28" s="4"/>
+      <c r="J28" s="4"/>
+      <c r="K28" s="4"/>
+      <c r="L28" s="4"/>
     </row>
     <row r="29" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A29" s="2" t="s">
+      <c r="A29" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="B29" s="2"/>
-      <c r="C29" s="2"/>
-      <c r="D29" s="3"/>
-      <c r="E29" s="3"/>
-      <c r="F29" s="3"/>
-      <c r="G29" s="3"/>
-      <c r="H29" s="3"/>
-      <c r="I29" s="3"/>
-      <c r="J29" s="3"/>
-      <c r="K29" s="3"/>
-      <c r="L29" s="4"/>
-      <c r="M29" s="2"/>
+      <c r="B29" s="3"/>
+      <c r="C29" s="3"/>
+      <c r="D29" s="4"/>
+      <c r="E29" s="4"/>
+      <c r="F29" s="4"/>
+      <c r="G29" s="4"/>
+      <c r="H29" s="4"/>
+      <c r="I29" s="4"/>
+      <c r="J29" s="4"/>
+      <c r="K29" s="4"/>
+      <c r="L29" s="6"/>
+      <c r="M29" s="3"/>
     </row>
     <row r="30" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A30" s="20" t="s">
+      <c r="A30" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="B30" s="2"/>
-      <c r="C30" s="2" t="s">
+      <c r="B30" s="3"/>
+      <c r="C30" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="D30" s="3">
+      <c r="D30" s="4">
         <v>8</v>
       </c>
-      <c r="E30" s="3" t="s">
+      <c r="E30" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="F30" s="3" t="s">
+      <c r="F30" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="G30" s="4">
+      <c r="G30" s="6">
         <v>255</v>
       </c>
-      <c r="H30" s="4">
+      <c r="H30" s="6">
         <v>255</v>
       </c>
-      <c r="I30" s="3" t="s">
+      <c r="I30" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="J30" s="3" t="s">
+      <c r="J30" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="K30" s="4" t="s">
+      <c r="K30" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="L30" s="4">
+      <c r="L30" s="6">
         <v>255</v>
       </c>
-      <c r="M30" s="2" t="s">
+      <c r="M30" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="O30" s="9" t="s">
+      <c r="O30" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="S30" s="9" t="s">
+      <c r="S30" s="2" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="31" spans="1:19" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A31" s="20" t="s">
+    <row r="31" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A31" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="B31" s="2"/>
-      <c r="C31" s="2" t="s">
+      <c r="B31" s="3"/>
+      <c r="C31" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="D31" s="3">
+      <c r="D31" s="4">
         <v>7</v>
       </c>
-      <c r="E31" s="4">
+      <c r="E31" s="6">
         <v>19</v>
       </c>
-      <c r="F31" s="4">
+      <c r="F31" s="6">
         <v>19</v>
       </c>
-      <c r="G31" s="4">
+      <c r="G31" s="6">
         <v>19</v>
       </c>
-      <c r="H31" s="4">
+      <c r="H31" s="6">
         <v>24</v>
       </c>
-      <c r="I31" s="4">
+      <c r="I31" s="6">
         <v>175</v>
       </c>
-      <c r="J31" s="5" t="s">
-        <v>124</v>
-      </c>
-      <c r="K31" s="4">
+      <c r="J31" s="6">
+        <v>2</v>
+      </c>
+      <c r="K31" s="6">
         <v>19</v>
       </c>
-      <c r="L31" s="4"/>
-      <c r="M31" s="2" t="s">
+      <c r="L31" s="6"/>
+      <c r="M31" s="3" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="32" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A32" s="2" t="s">
+      <c r="A32" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="B32" s="2"/>
-      <c r="C32" s="2" t="s">
+      <c r="B32" s="3"/>
+      <c r="C32" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="D32" s="3">
+      <c r="D32" s="4">
         <v>8</v>
       </c>
-      <c r="E32" s="3">
+      <c r="E32" s="4">
         <v>2</v>
       </c>
-      <c r="F32" s="3">
+      <c r="F32" s="4">
         <v>45</v>
       </c>
-      <c r="G32" s="3">
+      <c r="G32" s="4">
         <v>2</v>
       </c>
-      <c r="H32" s="3">
+      <c r="H32" s="4">
         <v>45</v>
       </c>
-      <c r="I32" s="3">
+      <c r="I32" s="4">
         <v>2</v>
       </c>
-      <c r="J32" s="3">
+      <c r="J32" s="4">
         <v>42</v>
       </c>
-      <c r="K32" s="3" t="s">
+      <c r="K32" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="L32" s="3">
+      <c r="L32" s="4">
         <v>129</v>
       </c>
-      <c r="M32" s="2"/>
+      <c r="M32" s="3"/>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A33" s="20" t="s">
+      <c r="A33" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="B33" s="2"/>
-      <c r="C33" s="2" t="s">
+      <c r="B33" s="3"/>
+      <c r="C33" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="D33" s="3">
+      <c r="D33" s="4">
         <v>5</v>
       </c>
-      <c r="E33" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="F33" s="3">
-        <v>0</v>
-      </c>
-      <c r="G33" s="3">
+      <c r="E33" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="F33" s="4">
+        <v>0</v>
+      </c>
+      <c r="G33" s="4">
         <v>255</v>
       </c>
-      <c r="H33" s="3">
+      <c r="H33" s="4">
         <v>255</v>
       </c>
-      <c r="I33" s="3">
-        <v>0</v>
-      </c>
-      <c r="J33" s="4"/>
-      <c r="K33" s="6" t="s">
+      <c r="I33" s="4">
+        <v>0</v>
+      </c>
+      <c r="J33" s="6"/>
+      <c r="K33" s="6"/>
+      <c r="L33" s="6"/>
+      <c r="M33" s="3" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A34" s="13" t="s">
+        <v>86</v>
+      </c>
+      <c r="B34" s="3"/>
+      <c r="C34" s="14" t="s">
+        <v>87</v>
+      </c>
+      <c r="D34" s="4">
+        <v>8</v>
+      </c>
+      <c r="E34" s="4">
+        <v>4</v>
+      </c>
+      <c r="F34" s="4">
+        <v>0</v>
+      </c>
+      <c r="G34" s="4">
+        <v>191</v>
+      </c>
+      <c r="H34" s="15">
+        <v>127</v>
+      </c>
+      <c r="I34" s="4">
+        <v>128</v>
+      </c>
+      <c r="J34" s="4">
+        <v>128</v>
+      </c>
+      <c r="K34" s="4">
+        <v>0</v>
+      </c>
+      <c r="L34" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" s="20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="16" t="s">
+        <v>88</v>
+      </c>
+      <c r="B35" s="16"/>
+      <c r="C35" s="17" t="s">
+        <v>89</v>
+      </c>
+      <c r="D35" s="18"/>
+      <c r="E35" s="18"/>
+      <c r="F35" s="18"/>
+      <c r="G35" s="18"/>
+      <c r="H35" s="19"/>
+      <c r="I35" s="18"/>
+      <c r="J35" s="18" t="s">
+        <v>90</v>
+      </c>
+      <c r="K35" s="18"/>
+      <c r="L35" s="18"/>
+    </row>
+    <row r="36" spans="1:13" s="20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="16" t="s">
+        <v>91</v>
+      </c>
+      <c r="B36" s="16"/>
+      <c r="C36" s="17" t="s">
+        <v>92</v>
+      </c>
+      <c r="D36" s="18"/>
+      <c r="E36" s="18" t="s">
+        <v>93</v>
+      </c>
+      <c r="F36" s="18" t="s">
+        <v>93</v>
+      </c>
+      <c r="G36" s="18" t="s">
+        <v>94</v>
+      </c>
+      <c r="H36" s="19" t="s">
+        <v>94</v>
+      </c>
+      <c r="I36" s="18" t="s">
+        <v>95</v>
+      </c>
+      <c r="J36" s="18" t="s">
+        <v>96</v>
+      </c>
+      <c r="K36" s="18" t="s">
+        <v>97</v>
+      </c>
+      <c r="L36" s="18" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="B37" s="7"/>
+      <c r="C37" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D37" s="8">
+        <v>7</v>
+      </c>
+      <c r="E37" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="F37" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="G37" s="9"/>
+      <c r="H37" s="9"/>
+      <c r="I37" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="J37" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="K37" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="L37" s="9"/>
+    </row>
+    <row r="38" spans="1:13" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="21"/>
+      <c r="D38" s="9"/>
+      <c r="E38" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="F38" s="9"/>
+      <c r="G38" s="9"/>
+      <c r="H38" s="9"/>
+      <c r="I38" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="J38" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="K38" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="L38" s="9"/>
+    </row>
+    <row r="39" spans="1:13" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="21"/>
+      <c r="D39" s="9"/>
+      <c r="E39" s="9"/>
+      <c r="F39" s="9"/>
+      <c r="G39" s="9"/>
+      <c r="H39" s="9"/>
+      <c r="I39" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="J39" s="8"/>
+      <c r="K39" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="L39" s="9"/>
+    </row>
+    <row r="40" spans="1:13" s="20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="20" t="s">
+        <v>61</v>
+      </c>
+      <c r="C40" s="20" t="s">
+        <v>110</v>
+      </c>
+      <c r="D40" s="22"/>
+      <c r="E40" s="22" t="s">
+        <v>111</v>
+      </c>
+      <c r="F40" s="22"/>
+      <c r="G40" s="22"/>
+      <c r="H40" s="22"/>
+      <c r="I40" s="18"/>
+      <c r="J40" s="18"/>
+      <c r="K40" s="18"/>
+      <c r="L40" s="22"/>
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A41" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="B41" s="3"/>
+      <c r="C41" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="D41" s="4">
+        <v>7</v>
+      </c>
+      <c r="E41" s="4">
+        <v>0</v>
+      </c>
+      <c r="F41" s="4">
+        <v>0</v>
+      </c>
+      <c r="G41" s="4">
+        <v>0</v>
+      </c>
+      <c r="H41" s="4">
+        <v>0</v>
+      </c>
+      <c r="I41" s="4">
+        <v>16</v>
+      </c>
+      <c r="J41" s="4">
+        <v>0</v>
+      </c>
+      <c r="K41" s="4">
+        <v>2</v>
+      </c>
+      <c r="L41" s="6"/>
+      <c r="M41" s="2" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A42" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="B42" s="3"/>
+      <c r="C42" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="D42" s="4">
+        <v>8</v>
+      </c>
+      <c r="E42" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="F42" s="4">
+        <v>0</v>
+      </c>
+      <c r="G42" s="4">
+        <v>0</v>
+      </c>
+      <c r="H42" s="4">
+        <v>0</v>
+      </c>
+      <c r="I42" s="4">
+        <v>0</v>
+      </c>
+      <c r="J42" s="4">
+        <v>0</v>
+      </c>
+      <c r="K42" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="L42" s="4">
+        <v>106</v>
+      </c>
+      <c r="M42" s="3" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="D43" s="6"/>
+      <c r="E43" s="6"/>
+      <c r="F43" s="6"/>
+      <c r="G43" s="6"/>
+      <c r="H43" s="6"/>
+      <c r="I43" s="6"/>
+      <c r="J43" s="6"/>
+      <c r="K43" s="6"/>
+      <c r="L43" s="6"/>
+    </row>
+    <row r="44" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A44" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="B44" s="23" t="s">
+        <v>118</v>
+      </c>
+      <c r="C44" s="23"/>
+      <c r="D44" s="12">
+        <v>8</v>
+      </c>
+      <c r="E44" s="11">
+        <v>6</v>
+      </c>
+      <c r="F44" s="11">
+        <v>1</v>
+      </c>
+      <c r="G44" s="11">
+        <v>255</v>
+      </c>
+      <c r="H44" s="11">
+        <v>0</v>
+      </c>
+      <c r="I44" s="11">
+        <v>0</v>
+      </c>
+      <c r="J44" s="11">
+        <v>0</v>
+      </c>
+      <c r="K44" s="11">
+        <v>0</v>
+      </c>
+      <c r="L44" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13" ht="15" x14ac:dyDescent="0.2">
+      <c r="A45" s="24">
+        <v>47</v>
+      </c>
+      <c r="B45" s="23" t="s">
+        <v>119</v>
+      </c>
+      <c r="C45" s="23" t="s">
+        <v>3</v>
+      </c>
+      <c r="D45" s="12">
+        <v>8</v>
+      </c>
+      <c r="E45" s="25">
+        <v>6</v>
+      </c>
+      <c r="F45" s="25">
+        <v>127</v>
+      </c>
+      <c r="G45" s="25">
+        <v>2</v>
+      </c>
+      <c r="H45" s="25">
+        <v>0</v>
+      </c>
+      <c r="I45" s="25">
+        <v>0</v>
+      </c>
+      <c r="J45" s="25">
+        <v>0</v>
+      </c>
+      <c r="K45" s="25">
+        <v>0</v>
+      </c>
+      <c r="L45" s="25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13" ht="15" x14ac:dyDescent="0.2">
+      <c r="A46" s="24">
+        <v>41</v>
+      </c>
+      <c r="B46" s="23" t="s">
+        <v>120</v>
+      </c>
+      <c r="C46" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="D46" s="12">
+        <v>8</v>
+      </c>
+      <c r="E46" s="25">
+        <v>7</v>
+      </c>
+      <c r="F46" s="25">
+        <v>12</v>
+      </c>
+      <c r="G46" s="25">
+        <v>48</v>
+      </c>
+      <c r="H46" s="25">
+        <v>242</v>
+      </c>
+      <c r="I46" s="25">
+        <v>23</v>
+      </c>
+      <c r="J46" s="25">
+        <v>0</v>
+      </c>
+      <c r="K46" s="25">
+        <v>0</v>
+      </c>
+      <c r="L46" s="25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13" ht="15" x14ac:dyDescent="0.2">
+      <c r="A47" s="24">
+        <v>47</v>
+      </c>
+      <c r="B47" s="23" t="s">
+        <v>119</v>
+      </c>
+      <c r="C47" s="23" t="s">
+        <v>3</v>
+      </c>
+      <c r="D47" s="12">
+        <v>8</v>
+      </c>
+      <c r="E47" s="25">
+        <v>8</v>
+      </c>
+      <c r="F47" s="25">
+        <v>92</v>
+      </c>
+      <c r="G47" s="25">
+        <v>244</v>
+      </c>
+      <c r="H47" s="25">
+        <v>101</v>
+      </c>
+      <c r="I47" s="25">
+        <v>34</v>
+      </c>
+      <c r="J47" s="25">
+        <v>1</v>
+      </c>
+      <c r="K47" s="25">
+        <v>0</v>
+      </c>
+      <c r="L47" s="25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13" ht="15" x14ac:dyDescent="0.2">
+      <c r="A48" s="24">
+        <v>41</v>
+      </c>
+      <c r="B48" s="23" t="s">
+        <v>120</v>
+      </c>
+      <c r="C48" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="D48" s="12">
+        <v>8</v>
+      </c>
+      <c r="E48" s="25">
+        <v>129</v>
+      </c>
+      <c r="F48" s="25">
+        <v>127</v>
+      </c>
+      <c r="G48" s="25">
+        <v>0</v>
+      </c>
+      <c r="H48" s="25">
+        <v>0</v>
+      </c>
+      <c r="I48" s="25">
+        <v>0</v>
+      </c>
+      <c r="J48" s="25">
+        <v>0</v>
+      </c>
+      <c r="K48" s="25">
+        <v>0</v>
+      </c>
+      <c r="L48" s="25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A49" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="B49" s="23" t="s">
+        <v>121</v>
+      </c>
+      <c r="C49" s="26"/>
+      <c r="D49" s="12">
+        <v>8</v>
+      </c>
+      <c r="E49" s="11">
+        <v>0</v>
+      </c>
+      <c r="F49" s="11">
+        <v>0</v>
+      </c>
+      <c r="G49" s="11">
+        <v>0</v>
+      </c>
+      <c r="H49" s="11">
+        <v>0</v>
+      </c>
+      <c r="I49" s="11">
+        <v>0</v>
+      </c>
+      <c r="J49" s="11">
+        <v>0</v>
+      </c>
+      <c r="K49" s="11">
+        <v>0</v>
+      </c>
+      <c r="L49" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A52" s="2" t="s">
         <v>122</v>
-      </c>
-      <c r="L33" s="4"/>
-      <c r="M33" s="2" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A34" s="24" t="s">
-        <v>85</v>
-      </c>
-      <c r="B34" s="2"/>
-      <c r="C34" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="D34" s="3">
-        <v>8</v>
-      </c>
-      <c r="E34" s="3">
-        <v>4</v>
-      </c>
-      <c r="F34" s="3">
-        <v>0</v>
-      </c>
-      <c r="G34" s="3">
-        <v>191</v>
-      </c>
-      <c r="H34" s="8">
-        <v>127</v>
-      </c>
-      <c r="I34" s="3">
-        <v>128</v>
-      </c>
-      <c r="J34" s="3">
-        <v>128</v>
-      </c>
-      <c r="K34" s="3">
-        <v>0</v>
-      </c>
-      <c r="L34" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:13" s="13" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="25" t="s">
-        <v>87</v>
-      </c>
-      <c r="B35" s="25"/>
-      <c r="C35" s="10" t="s">
-        <v>88</v>
-      </c>
-      <c r="D35" s="11"/>
-      <c r="E35" s="11"/>
-      <c r="F35" s="11"/>
-      <c r="G35" s="11"/>
-      <c r="H35" s="12"/>
-      <c r="I35" s="11"/>
-      <c r="J35" s="11" t="s">
-        <v>89</v>
-      </c>
-      <c r="K35" s="11"/>
-      <c r="L35" s="11"/>
-    </row>
-    <row r="36" spans="1:13" s="13" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="25" t="s">
-        <v>90</v>
-      </c>
-      <c r="B36" s="25"/>
-      <c r="C36" s="10" t="s">
-        <v>91</v>
-      </c>
-      <c r="D36" s="11"/>
-      <c r="E36" s="11" t="s">
-        <v>92</v>
-      </c>
-      <c r="F36" s="11" t="s">
-        <v>92</v>
-      </c>
-      <c r="G36" s="11" t="s">
-        <v>93</v>
-      </c>
-      <c r="H36" s="12" t="s">
-        <v>93</v>
-      </c>
-      <c r="I36" s="11" t="s">
-        <v>94</v>
-      </c>
-      <c r="J36" s="11" t="s">
-        <v>95</v>
-      </c>
-      <c r="K36" s="11" t="s">
-        <v>96</v>
-      </c>
-      <c r="L36" s="11" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13" s="17" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="20" t="s">
-        <v>97</v>
-      </c>
-      <c r="B37" s="14"/>
-      <c r="C37" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="D37" s="15">
-        <v>7</v>
-      </c>
-      <c r="E37" s="15" t="s">
-        <v>98</v>
-      </c>
-      <c r="F37" s="15" t="s">
-        <v>99</v>
-      </c>
-      <c r="G37" s="16"/>
-      <c r="H37" s="16"/>
-      <c r="I37" s="15" t="s">
-        <v>100</v>
-      </c>
-      <c r="J37" s="15" t="s">
-        <v>101</v>
-      </c>
-      <c r="K37" s="15" t="s">
-        <v>102</v>
-      </c>
-      <c r="L37" s="16"/>
-    </row>
-    <row r="38" spans="1:13" s="17" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="26"/>
-      <c r="D38" s="16"/>
-      <c r="E38" s="15" t="s">
-        <v>103</v>
-      </c>
-      <c r="F38" s="16"/>
-      <c r="G38" s="16"/>
-      <c r="H38" s="16"/>
-      <c r="I38" s="15" t="s">
-        <v>104</v>
-      </c>
-      <c r="J38" s="15" t="s">
-        <v>105</v>
-      </c>
-      <c r="K38" s="15" t="s">
-        <v>106</v>
-      </c>
-      <c r="L38" s="16"/>
-    </row>
-    <row r="39" spans="1:13" s="17" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="26"/>
-      <c r="D39" s="16"/>
-      <c r="E39" s="16"/>
-      <c r="F39" s="16"/>
-      <c r="G39" s="16"/>
-      <c r="H39" s="16"/>
-      <c r="I39" s="15" t="s">
-        <v>107</v>
-      </c>
-      <c r="J39" s="15"/>
-      <c r="K39" s="15" t="s">
-        <v>108</v>
-      </c>
-      <c r="L39" s="16"/>
-    </row>
-    <row r="40" spans="1:13" s="13" customFormat="1" ht="51" x14ac:dyDescent="0.2">
-      <c r="A40" s="13" t="s">
-        <v>61</v>
-      </c>
-      <c r="C40" s="13" t="s">
-        <v>109</v>
-      </c>
-      <c r="D40" s="18"/>
-      <c r="E40" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="F40" s="18" t="s">
-        <v>110</v>
-      </c>
-      <c r="G40" s="18" t="s">
-        <v>110</v>
-      </c>
-      <c r="H40" s="18"/>
-      <c r="I40" s="11"/>
-      <c r="J40" s="11"/>
-      <c r="K40" s="11" t="s">
-        <v>125</v>
-      </c>
-      <c r="L40" s="1" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A41" s="20" t="s">
-        <v>111</v>
-      </c>
-      <c r="B41" s="2"/>
-      <c r="C41" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="D41" s="3">
-        <v>7</v>
-      </c>
-      <c r="E41" s="3">
-        <v>0</v>
-      </c>
-      <c r="F41" s="3">
-        <v>0</v>
-      </c>
-      <c r="G41" s="3">
-        <v>0</v>
-      </c>
-      <c r="H41" s="3">
-        <v>0</v>
-      </c>
-      <c r="I41" s="3">
-        <v>16</v>
-      </c>
-      <c r="J41" s="3">
-        <v>0</v>
-      </c>
-      <c r="K41" s="3">
-        <v>2</v>
-      </c>
-      <c r="L41" s="4"/>
-      <c r="M41" s="9" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A42" s="20" t="s">
-        <v>113</v>
-      </c>
-      <c r="B42" s="2"/>
-      <c r="C42" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="D42" s="3">
-        <v>8</v>
-      </c>
-      <c r="E42" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="F42" s="3">
-        <v>0</v>
-      </c>
-      <c r="G42" s="3">
-        <v>0</v>
-      </c>
-      <c r="H42" s="3">
-        <v>0</v>
-      </c>
-      <c r="I42" s="3">
-        <v>0</v>
-      </c>
-      <c r="J42" s="3">
-        <v>0</v>
-      </c>
-      <c r="K42" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="L42" s="3">
-        <v>106</v>
-      </c>
-      <c r="M42" s="2" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="D43" s="4"/>
-      <c r="E43" s="4"/>
-      <c r="F43" s="4"/>
-      <c r="G43" s="4"/>
-      <c r="H43" s="4"/>
-      <c r="I43" s="4"/>
-      <c r="J43" s="4"/>
-      <c r="K43" s="4"/>
-      <c r="L43" s="4"/>
-    </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A44" s="20" t="s">
-        <v>64</v>
-      </c>
-      <c r="B44" s="27" t="s">
-        <v>117</v>
-      </c>
-      <c r="C44" s="27"/>
-      <c r="D44" s="23">
-        <v>8</v>
-      </c>
-      <c r="E44" s="22">
-        <v>6</v>
-      </c>
-      <c r="F44" s="22">
-        <v>1</v>
-      </c>
-      <c r="G44" s="22">
-        <v>255</v>
-      </c>
-      <c r="H44" s="22">
-        <v>0</v>
-      </c>
-      <c r="I44" s="22">
-        <v>0</v>
-      </c>
-      <c r="J44" s="22">
-        <v>0</v>
-      </c>
-      <c r="K44" s="22">
-        <v>0</v>
-      </c>
-      <c r="L44" s="22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13" ht="15" x14ac:dyDescent="0.2">
-      <c r="A45" s="28">
-        <v>47</v>
-      </c>
-      <c r="B45" s="27" t="s">
-        <v>118</v>
-      </c>
-      <c r="C45" s="27" t="s">
-        <v>3</v>
-      </c>
-      <c r="D45" s="23">
-        <v>8</v>
-      </c>
-      <c r="E45" s="29">
-        <v>6</v>
-      </c>
-      <c r="F45" s="29">
-        <v>127</v>
-      </c>
-      <c r="G45" s="29">
-        <v>2</v>
-      </c>
-      <c r="H45" s="29">
-        <v>0</v>
-      </c>
-      <c r="I45" s="29">
-        <v>0</v>
-      </c>
-      <c r="J45" s="29">
-        <v>0</v>
-      </c>
-      <c r="K45" s="29">
-        <v>0</v>
-      </c>
-      <c r="L45" s="29">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13" ht="15" x14ac:dyDescent="0.2">
-      <c r="A46" s="28">
-        <v>41</v>
-      </c>
-      <c r="B46" s="27" t="s">
-        <v>119</v>
-      </c>
-      <c r="C46" s="27" t="s">
-        <v>8</v>
-      </c>
-      <c r="D46" s="23">
-        <v>8</v>
-      </c>
-      <c r="E46" s="29">
-        <v>7</v>
-      </c>
-      <c r="F46" s="29">
-        <v>12</v>
-      </c>
-      <c r="G46" s="29">
-        <v>48</v>
-      </c>
-      <c r="H46" s="29">
-        <v>242</v>
-      </c>
-      <c r="I46" s="29">
-        <v>23</v>
-      </c>
-      <c r="J46" s="29">
-        <v>0</v>
-      </c>
-      <c r="K46" s="29">
-        <v>0</v>
-      </c>
-      <c r="L46" s="29">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:13" ht="15" x14ac:dyDescent="0.2">
-      <c r="A47" s="28">
-        <v>47</v>
-      </c>
-      <c r="B47" s="27" t="s">
-        <v>118</v>
-      </c>
-      <c r="C47" s="27" t="s">
-        <v>3</v>
-      </c>
-      <c r="D47" s="23">
-        <v>8</v>
-      </c>
-      <c r="E47" s="29">
-        <v>8</v>
-      </c>
-      <c r="F47" s="29">
-        <v>92</v>
-      </c>
-      <c r="G47" s="29">
-        <v>244</v>
-      </c>
-      <c r="H47" s="29">
-        <v>101</v>
-      </c>
-      <c r="I47" s="29">
-        <v>34</v>
-      </c>
-      <c r="J47" s="29">
-        <v>1</v>
-      </c>
-      <c r="K47" s="29">
-        <v>0</v>
-      </c>
-      <c r="L47" s="29">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13" ht="15" x14ac:dyDescent="0.2">
-      <c r="A48" s="28">
-        <v>41</v>
-      </c>
-      <c r="B48" s="27" t="s">
-        <v>119</v>
-      </c>
-      <c r="C48" s="27" t="s">
-        <v>8</v>
-      </c>
-      <c r="D48" s="23">
-        <v>8</v>
-      </c>
-      <c r="E48" s="29">
-        <v>129</v>
-      </c>
-      <c r="F48" s="29">
-        <v>127</v>
-      </c>
-      <c r="G48" s="29">
-        <v>0</v>
-      </c>
-      <c r="H48" s="29">
-        <v>0</v>
-      </c>
-      <c r="I48" s="29">
-        <v>0</v>
-      </c>
-      <c r="J48" s="29">
-        <v>0</v>
-      </c>
-      <c r="K48" s="29">
-        <v>0</v>
-      </c>
-      <c r="L48" s="29">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A49" s="20" t="s">
-        <v>64</v>
-      </c>
-      <c r="B49" s="27" t="s">
-        <v>120</v>
-      </c>
-      <c r="C49" s="30"/>
-      <c r="D49" s="23">
-        <v>8</v>
-      </c>
-      <c r="E49" s="22">
-        <v>0</v>
-      </c>
-      <c r="F49" s="22">
-        <v>0</v>
-      </c>
-      <c r="G49" s="22">
-        <v>0</v>
-      </c>
-      <c r="H49" s="22">
-        <v>0</v>
-      </c>
-      <c r="I49" s="22">
-        <v>0</v>
-      </c>
-      <c r="J49" s="22">
-        <v>0</v>
-      </c>
-      <c r="K49" s="22">
-        <v>0</v>
-      </c>
-      <c r="L49" s="22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A52" s="9" t="s">
-        <v>121</v>
       </c>
     </row>
   </sheetData>
